--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,39 +43,42 @@
     <t>evil</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>wrong</t>
   </si>
   <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>disturbing</t>
+    <t>scary</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
     <t>hate</t>
   </si>
   <si>
@@ -85,49 +88,52 @@
     <t>crazy</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>good</t>
+    <t>love</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
     <t>social</t>
+  </si>
+  <si>
+    <t>netflix</t>
   </si>
   <si>
     <t>…</t>
@@ -491,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,10 +505,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -584,13 +590,13 @@
         <v>28</v>
       </c>
       <c r="K3">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -602,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -610,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,19 +634,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K4">
-        <v>0.92</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -652,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -660,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>30</v>
@@ -710,13 +716,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9038461538461539</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C6">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -728,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K6">
-        <v>0.8181818181818182</v>
+        <v>0.84</v>
       </c>
       <c r="L6">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -752,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -760,13 +766,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -778,19 +784,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K7">
-        <v>0.6140350877192983</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -802,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -810,13 +816,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -828,19 +834,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K8">
-        <v>0.5862068965517241</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="L8">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -852,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -860,13 +866,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7647058823529411</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -878,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K9">
-        <v>0.4833333333333333</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -902,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -910,13 +916,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7368421052631579</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -928,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K10">
-        <v>0.4666666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -952,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -960,13 +966,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.675</v>
+        <v>0.7</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -978,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K11">
-        <v>0.1875</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L11">
         <v>9</v>
@@ -1002,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1010,13 +1016,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5625</v>
+        <v>0.6875</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1028,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K12">
-        <v>0.05919854280510018</v>
+        <v>0.1875</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1052,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1033</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1060,13 +1066,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1078,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K13">
-        <v>0.006912442396313364</v>
+        <v>0.05828779599271403</v>
       </c>
       <c r="L13">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="M13">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1102,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1724</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1110,13 +1116,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4782608695652174</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C14">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1128,7 +1134,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14">
+        <v>0.02037037037037037</v>
+      </c>
+      <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>11</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1136,13 +1166,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.45</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1154,7 +1184,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15">
+        <v>0.005184331797235023</v>
+      </c>
+      <c r="L15">
+        <v>9</v>
+      </c>
+      <c r="M15">
+        <v>9</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1727</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1162,13 +1216,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4347826086956522</v>
+        <v>0.45</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1180,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1188,13 +1242,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4285714285714285</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1206,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1214,13 +1268,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3404255319148936</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1232,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1240,13 +1294,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3214285714285715</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1258,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1266,13 +1320,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2564102564102564</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1284,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1292,13 +1346,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.141025641025641</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1310,7 +1364,33 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>67</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
